--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit1-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H2">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I2">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J2">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1956266666666666</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N2">
-        <v>0.58688</v>
+        <v>1.958343</v>
       </c>
       <c r="O2">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P2">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q2">
-        <v>0.02474931648</v>
+        <v>0.164741035408</v>
       </c>
       <c r="R2">
-        <v>0.22274384832</v>
+        <v>1.482669318672</v>
       </c>
       <c r="S2">
-        <v>0.0004169187979917968</v>
+        <v>0.004383413184853762</v>
       </c>
       <c r="T2">
-        <v>0.0004169187979917967</v>
+        <v>0.004383413184853762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H3">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I3">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J3">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>50.619467</v>
       </c>
       <c r="O3">
-        <v>0.6109423190513904</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P3">
-        <v>0.6109423190513905</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q3">
-        <v>2.134673542857</v>
+        <v>4.258244549285333</v>
       </c>
       <c r="R3">
-        <v>19.212061885713</v>
+        <v>38.324200943568</v>
       </c>
       <c r="S3">
-        <v>0.03596000432222162</v>
+        <v>0.1133029500236015</v>
       </c>
       <c r="T3">
-        <v>0.03596000432222162</v>
+        <v>0.1133029500236015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H4">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I4">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J4">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,90 +685,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.521927</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N4">
-        <v>31.565781</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O4">
-        <v>0.3809773707575451</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P4">
-        <v>0.3809773707575451</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q4">
-        <v>1.331160550551</v>
+        <v>0.7425940177173334</v>
       </c>
       <c r="R4">
-        <v>11.980444954959</v>
+        <v>6.683346159456001</v>
       </c>
       <c r="S4">
-        <v>0.02242429026750324</v>
+        <v>0.01975886821516004</v>
       </c>
       <c r="T4">
-        <v>0.02242429026750323</v>
+        <v>0.01975886821516004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.126513</v>
+        <v>0.3272293333333334</v>
       </c>
       <c r="H5">
-        <v>0.379539</v>
+        <v>0.9816880000000001</v>
       </c>
       <c r="I5">
-        <v>0.0588599008463789</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J5">
-        <v>0.05885990084637888</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02753733333333333</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N5">
-        <v>0.082612</v>
+        <v>1.958343</v>
       </c>
       <c r="O5">
-        <v>0.0009970702943488811</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P5">
-        <v>0.0009970702943488811</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q5">
-        <v>0.003483830652</v>
+        <v>0.2136090914426667</v>
       </c>
       <c r="R5">
-        <v>0.031354475868</v>
+        <v>1.922481822984</v>
       </c>
       <c r="S5">
-        <v>5.868745866224496E-05</v>
+        <v>0.005683689589029672</v>
       </c>
       <c r="T5">
-        <v>5.868745866224495E-05</v>
+        <v>0.005683689589029671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I6">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J6">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1956266666666666</v>
+        <v>16.87315566666667</v>
       </c>
       <c r="N6">
-        <v>0.58688</v>
+        <v>50.619467</v>
       </c>
       <c r="O6">
-        <v>0.007083239896715625</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P6">
-        <v>0.007083239896715625</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q6">
-        <v>0.06401478371555555</v>
+        <v>5.521391480032889</v>
       </c>
       <c r="R6">
-        <v>0.57613305344</v>
+        <v>49.692523320296</v>
       </c>
       <c r="S6">
-        <v>0.001078371869459979</v>
+        <v>0.1469126386900206</v>
       </c>
       <c r="T6">
-        <v>0.001078371869459979</v>
+        <v>0.1469126386900206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I7">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J7">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.87315566666667</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N7">
-        <v>50.619467</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O7">
-        <v>0.6109423190513904</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P7">
-        <v>0.6109423190513905</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q7">
-        <v>5.521391480032889</v>
+        <v>0.9628738404035557</v>
       </c>
       <c r="R7">
-        <v>49.692523320296</v>
+        <v>8.665864563632002</v>
       </c>
       <c r="S7">
-        <v>0.09301153431682409</v>
+        <v>0.02562005196169092</v>
       </c>
       <c r="T7">
-        <v>0.09301153431682409</v>
+        <v>0.02562005196169092</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3272293333333334</v>
+        <v>0.267684</v>
       </c>
       <c r="H8">
-        <v>0.9816880000000001</v>
+        <v>0.803052</v>
       </c>
       <c r="I8">
-        <v>0.1522427427539199</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J8">
-        <v>0.1522427427539199</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,43 +933,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.521927</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N8">
-        <v>31.565781</v>
+        <v>1.958343</v>
       </c>
       <c r="O8">
-        <v>0.3809773707575451</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P8">
-        <v>0.3809773707575451</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q8">
-        <v>3.443083157592</v>
+        <v>0.174739029204</v>
       </c>
       <c r="R8">
-        <v>30.987748418328</v>
+        <v>1.572651262836</v>
       </c>
       <c r="S8">
-        <v>0.05800103985130571</v>
+        <v>0.004649438815437751</v>
       </c>
       <c r="T8">
-        <v>0.0580010398513057</v>
+        <v>0.004649438815437751</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3272293333333334</v>
+        <v>0.267684</v>
       </c>
       <c r="H9">
-        <v>0.9816880000000001</v>
+        <v>0.803052</v>
       </c>
       <c r="I9">
-        <v>0.1522427427539199</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J9">
-        <v>0.1522427427539199</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02753733333333333</v>
+        <v>16.87315566666667</v>
       </c>
       <c r="N9">
-        <v>0.082612</v>
+        <v>50.619467</v>
       </c>
       <c r="O9">
-        <v>0.0009970702943488811</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P9">
-        <v>0.0009970702943488811</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q9">
-        <v>0.009011023228444446</v>
+        <v>4.516673801475999</v>
       </c>
       <c r="R9">
-        <v>0.08109920905600002</v>
+        <v>40.650064213284</v>
       </c>
       <c r="S9">
-        <v>0.0001517967163301319</v>
+        <v>0.1201792100191694</v>
       </c>
       <c r="T9">
-        <v>0.0001517967163301319</v>
+        <v>0.1201792100191694</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6264076666666666</v>
+        <v>0.267684</v>
       </c>
       <c r="H10">
-        <v>1.879223</v>
+        <v>0.803052</v>
       </c>
       <c r="I10">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J10">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1956266666666666</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N10">
-        <v>0.58688</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O10">
-        <v>0.007083239896715625</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P10">
-        <v>0.007083239896715625</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q10">
-        <v>0.1225420438044444</v>
+        <v>0.7876614191919999</v>
       </c>
       <c r="R10">
-        <v>1.10287839424</v>
+        <v>7.088952772728001</v>
       </c>
       <c r="S10">
-        <v>0.002064302731256967</v>
+        <v>0.02095801717851273</v>
       </c>
       <c r="T10">
-        <v>0.002064302731256967</v>
+        <v>0.02095801717851273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.6264076666666666</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H11">
-        <v>1.879223</v>
+        <v>0.10267</v>
       </c>
       <c r="I11">
-        <v>0.2914348181563282</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J11">
-        <v>0.2914348181563282</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.87315566666667</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N11">
-        <v>50.619467</v>
+        <v>1.958343</v>
       </c>
       <c r="O11">
-        <v>0.6109423190513904</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P11">
-        <v>0.6109423190513905</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q11">
-        <v>10.56947407046011</v>
+        <v>0.02234034175666667</v>
       </c>
       <c r="R11">
-        <v>95.125266634141</v>
+        <v>0.20106307581</v>
       </c>
       <c r="S11">
-        <v>0.1780498636567474</v>
+        <v>0.0005944296050330414</v>
       </c>
       <c r="T11">
-        <v>0.1780498636567474</v>
+        <v>0.0005944296050330413</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.6264076666666666</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H12">
-        <v>1.879223</v>
+        <v>0.10267</v>
       </c>
       <c r="I12">
-        <v>0.2914348181563282</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J12">
-        <v>0.2914348181563282</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.521927</v>
+        <v>16.87315566666667</v>
       </c>
       <c r="N12">
-        <v>31.565781</v>
+        <v>50.619467</v>
       </c>
       <c r="O12">
-        <v>0.3809773707575451</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P12">
-        <v>0.3809773707575451</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q12">
-        <v>6.591015740906999</v>
+        <v>0.5774556307655555</v>
       </c>
       <c r="R12">
-        <v>59.31914166816299</v>
+        <v>5.19710067689</v>
       </c>
       <c r="S12">
-        <v>0.1110300707684012</v>
+        <v>0.01536488233970917</v>
       </c>
       <c r="T12">
-        <v>0.1110300707684012</v>
+        <v>0.01536488233970917</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.6264076666666666</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H13">
-        <v>1.879223</v>
+        <v>0.10267</v>
       </c>
       <c r="I13">
-        <v>0.2914348181563282</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J13">
-        <v>0.2914348181563282</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.02753733333333333</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N13">
-        <v>0.082612</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O13">
-        <v>0.0009970702943488811</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P13">
-        <v>0.0009970702943488811</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q13">
-        <v>0.01724959671955555</v>
+        <v>0.1007023180422222</v>
       </c>
       <c r="R13">
-        <v>0.155246370476</v>
+        <v>0.9063208623800001</v>
       </c>
       <c r="S13">
-        <v>0.0002905809999226428</v>
+        <v>0.002679477323657625</v>
       </c>
       <c r="T13">
-        <v>0.0002905809999226428</v>
+        <v>0.002679477323657625</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.229809</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H14">
-        <v>0.689427</v>
+        <v>1.968854</v>
       </c>
       <c r="I14">
-        <v>0.1069181424328368</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J14">
-        <v>0.1069181424328368</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1956266666666666</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N14">
-        <v>0.58688</v>
+        <v>1.958343</v>
       </c>
       <c r="O14">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P14">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q14">
-        <v>0.04495676864</v>
+        <v>0.4284101609913333</v>
       </c>
       <c r="R14">
-        <v>0.40461091776</v>
+        <v>3.855691448922</v>
       </c>
       <c r="S14">
-        <v>0.0007573268521629937</v>
+        <v>0.01139909521367219</v>
       </c>
       <c r="T14">
-        <v>0.0007573268521629936</v>
+        <v>0.01139909521367219</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.229809</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H15">
-        <v>0.689427</v>
+        <v>1.968854</v>
       </c>
       <c r="I15">
-        <v>0.1069181424328368</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J15">
-        <v>0.1069181424328368</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>50.619467</v>
       </c>
       <c r="O15">
-        <v>0.6109423190513904</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P15">
-        <v>0.6109423190513905</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q15">
-        <v>3.877603030601</v>
+        <v>11.07359334231311</v>
       </c>
       <c r="R15">
-        <v>34.898427275409</v>
+        <v>99.66234008081801</v>
       </c>
       <c r="S15">
-        <v>0.06532081788658421</v>
+        <v>0.2946450769851539</v>
       </c>
       <c r="T15">
-        <v>0.0653208178865842</v>
+        <v>0.294645076985154</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,22 +1405,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.229809</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H16">
-        <v>0.689427</v>
+        <v>1.968854</v>
       </c>
       <c r="I16">
-        <v>0.1069181424328368</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J16">
-        <v>0.1069181424328368</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.521927</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N16">
-        <v>31.565781</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O16">
-        <v>0.3809773707575451</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P16">
-        <v>0.3809773707575451</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q16">
-        <v>2.418033521943</v>
+        <v>1.931120694328445</v>
       </c>
       <c r="R16">
-        <v>21.762301697487</v>
+        <v>17.380086248956</v>
       </c>
       <c r="S16">
-        <v>0.0407333927903429</v>
+        <v>0.05138306853601451</v>
       </c>
       <c r="T16">
-        <v>0.04073339279034288</v>
+        <v>0.05138306853601451</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.229809</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H17">
-        <v>0.689427</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I17">
-        <v>0.1069181424328368</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J17">
-        <v>0.1069181424328368</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02753733333333333</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N17">
-        <v>0.082612</v>
+        <v>1.958343</v>
       </c>
       <c r="O17">
-        <v>0.0009970702943488811</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P17">
-        <v>0.0009970702943488811</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q17">
-        <v>0.006328327036000001</v>
+        <v>0.1947543826323333</v>
       </c>
       <c r="R17">
-        <v>0.056954943324</v>
+        <v>1.752789443691</v>
       </c>
       <c r="S17">
-        <v>0.0001066049037467442</v>
+        <v>0.005182005360864501</v>
       </c>
       <c r="T17">
-        <v>0.0001066049037467442</v>
+        <v>0.005182005360864501</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5065629999999999</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H18">
-        <v>1.519689</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I18">
-        <v>0.2356773450352471</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J18">
-        <v>0.2356773450352471</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1956266666666666</v>
+        <v>16.87315566666667</v>
       </c>
       <c r="N18">
-        <v>0.58688</v>
+        <v>50.619467</v>
       </c>
       <c r="O18">
-        <v>0.007083239896715625</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P18">
-        <v>0.007083239896715625</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q18">
-        <v>0.09909723114666663</v>
+        <v>5.034032876142111</v>
       </c>
       <c r="R18">
-        <v>0.8918750803199997</v>
+        <v>45.30629588527901</v>
       </c>
       <c r="S18">
-        <v>0.001669359173105677</v>
+        <v>0.1339450491349593</v>
       </c>
       <c r="T18">
-        <v>0.001669359173105677</v>
+        <v>0.1339450491349593</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5065629999999999</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H19">
-        <v>1.519689</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I19">
-        <v>0.2356773450352471</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J19">
-        <v>0.2356773450352471</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.87315566666667</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N19">
-        <v>50.619467</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O19">
-        <v>0.6109423190513904</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P19">
-        <v>0.6109423190513905</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q19">
-        <v>8.547316353973663</v>
+        <v>0.8778835164464445</v>
       </c>
       <c r="R19">
-        <v>76.92584718576298</v>
+        <v>7.900951648018001</v>
       </c>
       <c r="S19">
-        <v>0.1439852637237086</v>
+        <v>0.02335863782345914</v>
       </c>
       <c r="T19">
-        <v>0.1439852637237086</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.5065629999999999</v>
-      </c>
-      <c r="H20">
-        <v>1.519689</v>
-      </c>
-      <c r="I20">
-        <v>0.2356773450352471</v>
-      </c>
-      <c r="J20">
-        <v>0.2356773450352471</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>10.521927</v>
-      </c>
-      <c r="N20">
-        <v>31.565781</v>
-      </c>
-      <c r="O20">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="P20">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="Q20">
-        <v>5.330018906900999</v>
-      </c>
-      <c r="R20">
-        <v>47.97017016210899</v>
-      </c>
-      <c r="S20">
-        <v>0.08978773525864724</v>
-      </c>
-      <c r="T20">
-        <v>0.08978773525864721</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.5065629999999999</v>
-      </c>
-      <c r="H21">
-        <v>1.519689</v>
-      </c>
-      <c r="I21">
-        <v>0.2356773450352471</v>
-      </c>
-      <c r="J21">
-        <v>0.2356773450352471</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.02753733333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.082612</v>
-      </c>
-      <c r="O21">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="P21">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="Q21">
-        <v>0.01394939418533333</v>
-      </c>
-      <c r="R21">
-        <v>0.125544547668</v>
-      </c>
-      <c r="S21">
-        <v>0.0002349868797856567</v>
-      </c>
-      <c r="T21">
-        <v>0.0002349868797856566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.33287</v>
-      </c>
-      <c r="H22">
-        <v>0.99861</v>
-      </c>
-      <c r="I22">
-        <v>0.154867050775289</v>
-      </c>
-      <c r="J22">
-        <v>0.154867050775289</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.1956266666666666</v>
-      </c>
-      <c r="N22">
-        <v>0.58688</v>
-      </c>
-      <c r="O22">
-        <v>0.007083239896715625</v>
-      </c>
-      <c r="P22">
-        <v>0.007083239896715625</v>
-      </c>
-      <c r="Q22">
-        <v>0.06511824853333333</v>
-      </c>
-      <c r="R22">
-        <v>0.5860642368</v>
-      </c>
-      <c r="S22">
-        <v>0.001096960472738212</v>
-      </c>
-      <c r="T22">
-        <v>0.001096960472738212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.33287</v>
-      </c>
-      <c r="H23">
-        <v>0.99861</v>
-      </c>
-      <c r="I23">
-        <v>0.154867050775289</v>
-      </c>
-      <c r="J23">
-        <v>0.154867050775289</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>16.87315566666667</v>
-      </c>
-      <c r="N23">
-        <v>50.619467</v>
-      </c>
-      <c r="O23">
-        <v>0.6109423190513904</v>
-      </c>
-      <c r="P23">
-        <v>0.6109423190513905</v>
-      </c>
-      <c r="Q23">
-        <v>5.616567326763333</v>
-      </c>
-      <c r="R23">
-        <v>50.54910594087</v>
-      </c>
-      <c r="S23">
-        <v>0.09461483514530451</v>
-      </c>
-      <c r="T23">
-        <v>0.09461483514530451</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.33287</v>
-      </c>
-      <c r="H24">
-        <v>0.99861</v>
-      </c>
-      <c r="I24">
-        <v>0.154867050775289</v>
-      </c>
-      <c r="J24">
-        <v>0.154867050775289</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>10.521927</v>
-      </c>
-      <c r="N24">
-        <v>31.565781</v>
-      </c>
-      <c r="O24">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="P24">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="Q24">
-        <v>3.50243384049</v>
-      </c>
-      <c r="R24">
-        <v>31.52190456441</v>
-      </c>
-      <c r="S24">
-        <v>0.05900084182134486</v>
-      </c>
-      <c r="T24">
-        <v>0.05900084182134484</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.33287</v>
-      </c>
-      <c r="H25">
-        <v>0.99861</v>
-      </c>
-      <c r="I25">
-        <v>0.154867050775289</v>
-      </c>
-      <c r="J25">
-        <v>0.154867050775289</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.02753733333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.082612</v>
-      </c>
-      <c r="O25">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="P25">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="Q25">
-        <v>0.009166352146666668</v>
-      </c>
-      <c r="R25">
-        <v>0.08249716932000001</v>
-      </c>
-      <c r="S25">
-        <v>0.0001544133359014605</v>
-      </c>
-      <c r="T25">
-        <v>0.0001544133359014605</v>
+        <v>0.02335863782345914</v>
       </c>
     </row>
   </sheetData>
